--- a/品質管理/マイページ.xlsx
+++ b/品質管理/マイページ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FE4166-2234-458F-A6DC-2B853800F95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE820492-A24D-4BD9-A0A2-7DEEC28563AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BC79E38-0FCA-4F16-98F7-937C3EEC5C9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7BC79E38-0FCA-4F16-98F7-937C3EEC5C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -337,6 +337,10 @@
     <rPh sb="11" eb="13">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -463,6 +467,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -471,12 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901BBF10-175E-4A0F-8DD1-281D00B9487C}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -828,7 +834,9 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
         <v>3</v>
@@ -838,7 +846,9 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
         <v>4</v>
@@ -848,7 +858,9 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>9</v>
@@ -858,8 +870,10 @@
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -870,8 +884,10 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
@@ -880,8 +896,10 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>7</v>
       </c>
@@ -890,17 +908,21 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
         <v>11</v>
@@ -910,7 +932,7 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
         <v>15</v>
@@ -923,8 +945,10 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -935,8 +959,10 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
@@ -945,8 +971,10 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="2" t="s">
         <v>16</v>
       </c>
@@ -955,8 +983,10 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="2" t="s">
         <v>17</v>
       </c>
@@ -968,8 +998,10 @@
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="7"/>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
@@ -978,8 +1010,10 @@
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="2" t="s">
         <v>19</v>
       </c>
@@ -988,8 +1022,10 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="5"/>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="7"/>
       <c r="E19" s="2" t="s">
         <v>20</v>
       </c>
@@ -998,8 +1034,10 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7"/>
       <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
@@ -1008,8 +1046,10 @@
       <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="5"/>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1018,8 +1058,10 @@
       <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="6"/>
+      <c r="C22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1028,16 +1070,18 @@
       <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1053,7 +1097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062992A1-4CE7-462B-BBC9-17531DD7F773}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1080,7 +1126,9 @@
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1092,7 +1140,9 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
@@ -1101,7 +1151,9 @@
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
       </c>

--- a/品質管理/マイページ.xlsx
+++ b/品質管理/マイページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE820492-A24D-4BD9-A0A2-7DEEC28563AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D591F40B-5186-4EBD-BF1E-2E2478B5AF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7BC79E38-0FCA-4F16-98F7-937C3EEC5C9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7BC79E38-0FCA-4F16-98F7-937C3EEC5C9C}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="1" r:id="rId1"/>
@@ -798,9 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901BBF10-175E-4A0F-8DD1-281D00B9487C}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1097,9 +1095,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{062992A1-4CE7-462B-BBC9-17531DD7F773}">
   <dimension ref="B2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
